--- a/SafeBuilding/wwwroot/file/Book2.xlsx
+++ b/SafeBuilding/wwwroot/file/Book2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8693C5-B53C-494C-B62F-65E1E397086C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7E9FE33-337B-4420-9AB5-79F1B4939B79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4944"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>dtruong1206@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>truonglndse160518@fpt.edu.vn</t>
   </si>
@@ -70,12 +66,33 @@
   </si>
   <si>
     <t>400.000đ</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>triquyen.tp@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,88 +448,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9256469-3E74-4292-A132-E0E7F7B6ED8E}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1" xr:uid="{F51FC752-AF4F-4EDA-B009-43F3C9C4526C}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{8FA34D98-D2CB-4299-A087-ABFE862CC704}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{D897C75A-292D-4B57-9874-F2B198A26F44}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
